--- a/teaching/traditional_assets/database/data/venezuela/venezuela_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/venezuela/venezuela_banks_regional.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2">
-        <v>12086.9</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="L2">
-        <v>0.3142008957932033</v>
+        <v>1.22987012987013</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>105168</v>
+        <v>39.8</v>
       </c>
       <c r="V2">
-        <v>16826.88</v>
+        <v>11.95195195195195</v>
       </c>
       <c r="W2">
-        <v>56.06168831168831</v>
+        <v>-0.0439239332096475</v>
       </c>
       <c r="X2">
-        <v>0.1256347970122638</v>
+        <v>0.1387371770143146</v>
       </c>
       <c r="Y2">
-        <v>55.93605351467605</v>
+        <v>-0.1826611102239621</v>
       </c>
       <c r="Z2">
-        <v>1967.205318332906</v>
+        <v>-0.3948717948717949</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.1256347970122638</v>
+        <v>0.1387371770143146</v>
       </c>
       <c r="AC2">
-        <v>-0.1256347970122638</v>
+        <v>-0.1387371770143146</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-105168</v>
+        <v>-39.8</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.000059432255549</v>
+        <v>1.09130792432136</v>
       </c>
       <c r="AK2">
-        <v>-0.3756209274516722</v>
+        <v>-0.3754716981132075</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3">
-        <v>12086.9</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="L3">
-        <v>0.3142008957932033</v>
+        <v>1.22987012987013</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -728,7 +728,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -737,37 +737,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>105168</v>
+        <v>39.8</v>
       </c>
       <c r="V3">
-        <v>16826.88</v>
+        <v>11.95195195195195</v>
       </c>
       <c r="W3">
-        <v>56.06168831168831</v>
+        <v>-0.0439239332096475</v>
       </c>
       <c r="X3">
-        <v>0.1256347970122638</v>
+        <v>0.1387371770143146</v>
       </c>
       <c r="Y3">
-        <v>55.93605351467605</v>
+        <v>-0.1826611102239621</v>
       </c>
       <c r="Z3">
-        <v>1967.205318332906</v>
+        <v>-0.3948717948717949</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1256347970122638</v>
+        <v>0.1387371770143146</v>
       </c>
       <c r="AC3">
-        <v>-0.1256347970122638</v>
+        <v>-0.1387371770143146</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-105168</v>
+        <v>-39.8</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.000059432255549</v>
+        <v>1.09130792432136</v>
       </c>
       <c r="AK3">
-        <v>-0.3756209274516722</v>
+        <v>-0.3754716981132075</v>
       </c>
       <c r="AL3">
         <v>0</v>
